--- a/xlsx/Нагрузка ПД.xlsx
+++ b/xlsx/Нагрузка ПД.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t xml:space="preserve">№   п/п</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Юридическая психология</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
   </si>
   <si>
     <t xml:space="preserve">Исполнительное производство</t>
@@ -537,8 +534,8 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W28" activeCellId="0" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,9 +933,7 @@
       <c r="Y6" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -954,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>81</v>
@@ -976,7 +971,7 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -999,9 +994,7 @@
       <c r="Y7" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1017,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>129</v>
@@ -1062,9 +1055,7 @@
       <c r="Y8" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z8" s="11"/>
       <c r="AA8" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1080,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>116</v>
@@ -1102,7 +1093,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -1125,9 +1116,7 @@
       <c r="Y9" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="Z9" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z9" s="11"/>
       <c r="AA9" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1143,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>126</v>
@@ -1165,7 +1154,7 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1188,9 +1177,7 @@
       <c r="Y10" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z10" s="11"/>
       <c r="AA10" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1206,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>144</v>
@@ -1253,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11" t="n">
@@ -1265,9 +1252,7 @@
       <c r="Y11" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z11" s="11"/>
       <c r="AA11" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1283,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>72</v>
@@ -1330,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11" t="n">
@@ -1342,9 +1327,7 @@
       <c r="Y12" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="Z12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z12" s="11"/>
       <c r="AA12" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1360,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1395,7 +1378,7 @@
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -1405,9 +1388,7 @@
       <c r="Y13" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z13" s="11"/>
       <c r="AA13" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1423,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1458,7 +1439,7 @@
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11" t="n">
@@ -1470,9 +1451,7 @@
       <c r="Y14" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="Z14" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1488,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1523,7 +1502,7 @@
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -1533,9 +1512,7 @@
       <c r="Y15" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1548,7 +1525,7 @@
     </row>
     <row r="16" s="17" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="13" t="n">
@@ -1652,7 +1629,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11" t="n">
@@ -1700,7 +1677,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V18" s="11"/>
       <c r="W18" s="11" t="n">
@@ -1748,7 +1725,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11" t="n">
@@ -1790,7 +1767,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11" t="n">
